--- a/data/trans_dic/P1404-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1404-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2373556649968107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2504268177257319</v>
+        <v>0.2504268177257318</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1823302806144036</v>
@@ -697,7 +697,7 @@
         <v>0.2579726627184157</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2916019447890137</v>
+        <v>0.2916019447890138</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1208371023818921</v>
+        <v>0.120746464681982</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1957167798122323</v>
+        <v>0.197002615416369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.206667978009236</v>
+        <v>0.207006611932662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2215782397744727</v>
+        <v>0.2214014390015308</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1624300062329938</v>
+        <v>0.1625555798101435</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2426867429284816</v>
+        <v>0.2387962926563149</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2443623640917851</v>
+        <v>0.2440498658820015</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2973892239106171</v>
+        <v>0.295546350092414</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1487920640860264</v>
+        <v>0.1495297264918519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2293743719438634</v>
+        <v>0.2294511121406864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2376225819646962</v>
+        <v>0.2369396394932358</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2717503413660019</v>
+        <v>0.2710645791430651</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1623788167141967</v>
+        <v>0.1620895229870524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2511745372081353</v>
+        <v>0.2566651666062014</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.270779949023164</v>
+        <v>0.2708058129335296</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2873879029632005</v>
+        <v>0.2840376323592197</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2049195596532746</v>
+        <v>0.2031469372824757</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2919460920343835</v>
+        <v>0.285201369675138</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3037154186482079</v>
+        <v>0.3027157058543001</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3432382115546904</v>
+        <v>0.3455108011582275</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1806528933243534</v>
+        <v>0.1808705347696708</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.26591287454511</v>
+        <v>0.2670215970159073</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.279261288272448</v>
+        <v>0.2793224316406456</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3122508160686117</v>
+        <v>0.3114592756668536</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.0819107866557594</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1143780200607145</v>
+        <v>0.1143780200607146</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05364110969554409</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04143048522563552</v>
+        <v>0.04230751582040791</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0579761648392551</v>
+        <v>0.05655878760412548</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06632579806899618</v>
+        <v>0.06651136458577588</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1124888225063978</v>
+        <v>0.1113909439982158</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0444373759454554</v>
+        <v>0.0448210353614505</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05505151407614634</v>
+        <v>0.05608922334617089</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07096340082287969</v>
+        <v>0.07023530741614199</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1040440473574905</v>
+        <v>0.1040042536707708</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04572394336667038</v>
+        <v>0.04519311317470685</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05968835795767836</v>
+        <v>0.06014517428820713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07141603839725898</v>
+        <v>0.07182121592959455</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1112265593531683</v>
+        <v>0.1115215158012917</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06321172436116747</v>
+        <v>0.06368170860121572</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08312271165087795</v>
+        <v>0.08216468229807725</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0905789065636448</v>
+        <v>0.09107481388379692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.141775402330443</v>
+        <v>0.1383422048963462</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0686425100377009</v>
+        <v>0.06705094974483634</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08107951509824762</v>
+        <v>0.08250171313370265</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09628953284873418</v>
+        <v>0.09551638311457664</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1267027522925518</v>
+        <v>0.1261892807108746</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06138289177985103</v>
+        <v>0.06100708686372229</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0778297483235539</v>
+        <v>0.07787912108705446</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08865446047439539</v>
+        <v>0.08918095432211315</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1282713697434239</v>
+        <v>0.1289937878094302</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03054424520772052</v>
+        <v>0.03062296712008076</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0507286498492189</v>
+        <v>0.05066635485785857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06152054859216031</v>
+        <v>0.05993602549818351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09563569422514211</v>
+        <v>0.09644288517715237</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02505171087560388</v>
+        <v>0.02634418000736816</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02162824812959753</v>
+        <v>0.02320026872708888</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04294300945048574</v>
+        <v>0.04159154341529125</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1022787627738664</v>
+        <v>0.1011490410835259</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03327078289066472</v>
+        <v>0.03395703348404555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04123580000846093</v>
+        <v>0.04265623851820354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05853890919696943</v>
+        <v>0.05873185389349141</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1036571436729</v>
+        <v>0.1049489677157563</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06653121838226532</v>
+        <v>0.06845476961038033</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1046391858881347</v>
+        <v>0.1033745705140873</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1125918883038064</v>
+        <v>0.1116535538249154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.142808010580608</v>
+        <v>0.144438293067717</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06438768798359473</v>
+        <v>0.0640217991557375</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06587464579669086</v>
+        <v>0.06451724073002323</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08753025374453344</v>
+        <v>0.08831240396746003</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1412031616473816</v>
+        <v>0.1419539244626251</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05806351055376653</v>
+        <v>0.0598225496092334</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07747277445730952</v>
+        <v>0.07630408136922669</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09173404481905294</v>
+        <v>0.09263573969854937</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1366743360361881</v>
+        <v>0.1372955324081474</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.114477985345338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1440607961408268</v>
+        <v>0.1440607961408267</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1030366913449996</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07060155006710656</v>
+        <v>0.0703215665348931</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1022464542410905</v>
+        <v>0.1026517781949503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1031214312096703</v>
+        <v>0.1038040637121461</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1336058939931591</v>
+        <v>0.1326464364190308</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09434520588601045</v>
+        <v>0.09262512494237973</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1269423185026892</v>
+        <v>0.1281638588799361</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1205106467215418</v>
+        <v>0.1217241686253201</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1510834267426636</v>
+        <v>0.1520811460925447</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08438834873613438</v>
+        <v>0.0839494883795797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1173283442280431</v>
+        <v>0.1185711704565548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1160359714076127</v>
+        <v>0.1159426845584132</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1461342866603307</v>
+        <v>0.1456329688423584</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08872081548127093</v>
+        <v>0.08862195580850631</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1252872128696292</v>
+        <v>0.1247255732353357</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1258285744288323</v>
+        <v>0.1251616354781601</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1554529535783282</v>
+        <v>0.1551582145452567</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1145409934477128</v>
+        <v>0.1148835484861753</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1506057550079769</v>
+        <v>0.1508667547439244</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1445576841794489</v>
+        <v>0.1460743050871212</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1695936510094777</v>
+        <v>0.1711413276871782</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09883244104123255</v>
+        <v>0.09812422392078991</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1348677129213528</v>
+        <v>0.1344358406131706</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1327399390289347</v>
+        <v>0.1320008668960131</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1601160616348278</v>
+        <v>0.1600898824578812</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>124670</v>
+        <v>124577</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>190754</v>
+        <v>192007</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>155899</v>
+        <v>156155</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>127107</v>
+        <v>127006</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>213614</v>
+        <v>213779</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>324666</v>
+        <v>319461</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>243057</v>
+        <v>242747</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>243330</v>
+        <v>241822</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>349190</v>
+        <v>350922</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>530414</v>
+        <v>530592</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>415604</v>
+        <v>414409</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>378240</v>
+        <v>377285</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>167530</v>
+        <v>167231</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>244806</v>
+        <v>250157</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>204262</v>
+        <v>204282</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>164858</v>
+        <v>162936</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>269492</v>
+        <v>267161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>390565</v>
+        <v>381542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>302094</v>
+        <v>301099</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>280845</v>
+        <v>282704</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>423963</v>
+        <v>424473</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>614908</v>
+        <v>617471</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>488430</v>
+        <v>488537</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>434611</v>
+        <v>433509</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>70159</v>
+        <v>71644</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>113781</v>
+        <v>110999</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>137718</v>
+        <v>138103</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>250484</v>
+        <v>248039</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>70552</v>
+        <v>71161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>96593</v>
+        <v>98414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>141097</v>
+        <v>139649</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>225549</v>
+        <v>225463</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>150024</v>
+        <v>148282</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>221870</v>
+        <v>223568</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>290284</v>
+        <v>291931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>488793</v>
+        <v>490089</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>107044</v>
+        <v>107839</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>163132</v>
+        <v>161252</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>188077</v>
+        <v>189106</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>315698</v>
+        <v>308053</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>108982</v>
+        <v>106455</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>142261</v>
+        <v>144757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>191452</v>
+        <v>189915</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>274669</v>
+        <v>273556</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>201403</v>
+        <v>200169</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>289304</v>
+        <v>289488</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>360352</v>
+        <v>362492</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>563698</v>
+        <v>566872</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16842</v>
+        <v>16886</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24410</v>
+        <v>24380</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>33645</v>
+        <v>32778</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>68053</v>
+        <v>68628</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11935</v>
+        <v>12551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9919</v>
+        <v>10640</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23582</v>
+        <v>22840</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>75020</v>
+        <v>74191</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34196</v>
+        <v>34902</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>38754</v>
+        <v>40089</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>64160</v>
+        <v>64372</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>149792</v>
+        <v>151659</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36686</v>
+        <v>37747</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50350</v>
+        <v>49742</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61575</v>
+        <v>61062</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>101620</v>
+        <v>102780</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30675</v>
+        <v>30501</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>30212</v>
+        <v>29590</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48066</v>
+        <v>48496</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>103571</v>
+        <v>104121</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59679</v>
+        <v>61487</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>72810</v>
+        <v>71712</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>100543</v>
+        <v>101531</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>197504</v>
+        <v>198402</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>231329</v>
+        <v>230412</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>349517</v>
+        <v>350902</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>348305</v>
+        <v>350610</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>469221</v>
+        <v>465851</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>318811</v>
+        <v>312999</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>450775</v>
+        <v>455112</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>425656</v>
+        <v>429942</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>561959</v>
+        <v>565670</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>561667</v>
+        <v>558746</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>817707</v>
+        <v>826369</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>801776</v>
+        <v>801131</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1056771</v>
+        <v>1053146</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>290698</v>
+        <v>290374</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>428278</v>
+        <v>426359</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>425001</v>
+        <v>422748</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>545947</v>
+        <v>544912</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>387057</v>
+        <v>388214</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>534804</v>
+        <v>535731</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>510592</v>
+        <v>515949</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>630809</v>
+        <v>636565</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>657803</v>
+        <v>653089</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>939946</v>
+        <v>936936</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>917196</v>
+        <v>912089</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1157881</v>
+        <v>1157691</v>
       </c>
     </row>
     <row r="20">
